--- a/flows/KOLD_fund_flow_data.xlsx
+++ b/flows/KOLD_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3113"/>
+  <dimension ref="A1:B3133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31565,6 +31565,206 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3114">
+      <c r="A3114" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B3114" t="n">
+        <v>-16.555988</v>
+      </c>
+    </row>
+    <row r="3115">
+      <c r="A3115" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B3115" t="n">
+        <v>52.368702</v>
+      </c>
+    </row>
+    <row r="3116">
+      <c r="A3116" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B3116" t="n">
+        <v>-12.8359375</v>
+      </c>
+    </row>
+    <row r="3117">
+      <c r="A3117" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B3117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3118">
+      <c r="A3118" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3118" t="n">
+        <v>-14.784027</v>
+      </c>
+    </row>
+    <row r="3119">
+      <c r="A3119" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3120">
+      <c r="A3120" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3121">
+      <c r="A3121" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3121" t="n">
+        <v>42.241753</v>
+      </c>
+    </row>
+    <row r="3122">
+      <c r="A3122" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3122" t="n">
+        <v>-0.0004934269</v>
+      </c>
+    </row>
+    <row r="3123">
+      <c r="A3123" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3123" t="n">
+        <v>-12.740599</v>
+      </c>
+    </row>
+    <row r="3124">
+      <c r="A3124" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3124" t="n">
+        <v>5.7393193</v>
+      </c>
+    </row>
+    <row r="3125">
+      <c r="A3125" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3126">
+      <c r="A3126" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3127">
+      <c r="A3127" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3127" t="n">
+        <v>-12.816344</v>
+      </c>
+    </row>
+    <row r="3128">
+      <c r="A3128" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3129">
+      <c r="A3129" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3129" t="n">
+        <v>-21.05721</v>
+      </c>
+    </row>
+    <row r="3130">
+      <c r="A3130" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3131">
+      <c r="A3131" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3132">
+      <c r="A3132" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3132" t="n">
+        <v>7.6278</v>
+      </c>
+    </row>
+    <row r="3133">
+      <c r="A3133" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B3133" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
